--- a/artfynd/A 67528-2018.xlsx
+++ b/artfynd/A 67528-2018.xlsx
@@ -948,53 +948,65 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82621790</v>
+        <v>85669557</v>
       </c>
       <c r="B4" t="n">
-        <v>97328</v>
+        <v>57061</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222654</v>
+        <v>102126</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brunag</t>
+          <t>Ortolansparv</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhynchospora fusca</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) W. T. Aiton</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>S Stormyran, Hls</t>
+          <t>Gammelbuberget, Brandområde Enskogen, Hls</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>523640.8694497054</v>
+        <v>519452.9699996185</v>
       </c>
       <c r="R4" t="n">
-        <v>6864862.80168251</v>
+        <v>6875987.441271199</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1016,29 +1028,24 @@
           <t>Färila</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>SJO200607291000</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2006-07-29</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2006-07-29</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1049,78 +1056,81 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Myr</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Björn Wannberg</t>
+          <t>Stefan Persson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Samuel Johnson, Martin Schmalholz</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Hälsinglands flora (2019)</t>
-        </is>
-      </c>
+          <t>Stefan Persson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82621789</v>
+        <v>101854159</v>
       </c>
       <c r="B5" t="n">
-        <v>101680</v>
+        <v>57061</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222412</v>
+        <v>102126</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ortolansparv</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S Stormyran, Hls</t>
+          <t>Hällbergets västsluttning, Brandområde Enskogen, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>523640.8694497054</v>
+        <v>519517.6629589962</v>
       </c>
       <c r="R5" t="n">
-        <v>6864862.80168251</v>
+        <v>6875614.003174596</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1142,29 +1152,29 @@
           <t>Färila</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>SJO200607291000</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2006-07-29</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2006-07-29</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Sydsluttningen Gammelbuberget</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1175,90 +1185,69 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Myr</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Björn Wannberg</t>
+          <t>Stefan Persson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Samuel Johnson, Martin Schmalholz</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Hälsinglands flora (2019)</t>
-        </is>
-      </c>
+          <t>Stefan Persson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85669557</v>
+        <v>82621790</v>
       </c>
       <c r="B6" t="n">
-        <v>57061</v>
+        <v>97328</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102126</v>
+        <v>222654</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ortolansparv</t>
+          <t>Brunag</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Rhynchospora fusca</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>(L.) W. T. Aiton</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Gammelbuberget, Brandområde Enskogen, Hls</t>
+          <t>S Stormyran, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>519452.9699996185</v>
+        <v>523640.8694497054</v>
       </c>
       <c r="R6" t="n">
-        <v>6875987.441271199</v>
+        <v>6864862.80168251</v>
       </c>
       <c r="S6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1280,24 +1269,29 @@
           <t>Färila</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>SJO200607291000</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2006-07-29</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2006-07-29</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1308,81 +1302,78 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Myr</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Stefan Persson</t>
+          <t>Björn Wannberg</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Stefan Persson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Samuel Johnson, Martin Schmalholz</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Hälsinglands flora (2019)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101854159</v>
+        <v>82621789</v>
       </c>
       <c r="B7" t="n">
-        <v>57061</v>
+        <v>101680</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102126</v>
+        <v>222412</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ortolansparv</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hällbergets västsluttning, Brandområde Enskogen, Hls</t>
+          <t>S Stormyran, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>519517.6629589962</v>
+        <v>523640.8694497054</v>
       </c>
       <c r="R7" t="n">
-        <v>6875614.003174596</v>
+        <v>6864862.80168251</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1404,29 +1395,29 @@
           <t>Färila</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>SJO200607291000</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2006-07-29</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2006-07-29</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>07:30</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Sydsluttningen Gammelbuberget</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1437,19 +1428,28 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Myr</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Stefan Persson</t>
+          <t>Björn Wannberg</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Stefan Persson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Samuel Johnson, Martin Schmalholz</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Hälsinglands flora (2019)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
